--- a/工作计划/2022/个人计划202202.xlsx
+++ b/工作计划/2022/个人计划202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840"/>
+    <workbookView windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="0207第一周" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -530,6 +530,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -668,7 +694,7 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,10 +733,10 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,28 +745,28 @@
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,13 +793,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +835,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,8 +1173,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1278,10 +1310,10 @@
       <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1360,7 +1392,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1378,24 +1410,24 @@
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="7"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1451,25 +1483,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1594,10 +1626,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/工作计划/2022/个人计划202202.xlsx
+++ b/工作计划/2022/个人计划202202.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="0207第一周" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -306,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +323,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,117 +677,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,7 +800,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,17 +812,17 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,28 +841,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1233,13 +1258,13 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1257,13 +1282,13 @@
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1275,45 +1300,45 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1330,16 +1355,16 @@
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1354,80 +1379,80 @@
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1444,16 +1469,16 @@
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1468,40 +1493,40 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1516,16 +1541,16 @@
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1540,64 +1565,64 @@
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1612,16 +1637,16 @@
       <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1636,4 +1661,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作计划/2022/个人计划202202.xlsx
+++ b/工作计划/2022/个人计划202202.xlsx
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
